--- a/MEDIA/3005_拉亞直營營業額(2019-11-01~2019-11-30).xlsx
+++ b/MEDIA/3005_拉亞直營營業額(2019-11-01~2019-11-30).xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA31"/>
+  <dimension ref="A1:AA33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,38 +510,38 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>拉亞杭南</t>
+          <t>拉亞農安</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>27045</v>
+        <v>19795</v>
       </c>
       <c r="E3" t="n">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="F3" t="n">
-        <v>12025</v>
+        <v>9897</v>
       </c>
       <c r="G3" t="n">
-        <v>44.5</v>
+        <v>50</v>
       </c>
       <c r="H3" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I3" t="n">
-        <v>6365</v>
+        <v>6043</v>
       </c>
       <c r="J3" t="n">
-        <v>23.5</v>
+        <v>30.5</v>
       </c>
       <c r="K3" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="L3" t="n">
-        <v>5715</v>
+        <v>480</v>
       </c>
       <c r="M3" t="n">
-        <v>21.1</v>
+        <v>2.4</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -556,19 +556,19 @@
         <v>1</v>
       </c>
       <c r="R3" t="n">
-        <v>910</v>
+        <v>235</v>
       </c>
       <c r="S3" t="n">
-        <v>3.4</v>
+        <v>1.2</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="U3" t="n">
-        <v>2030</v>
+        <v>3140</v>
       </c>
       <c r="V3" t="n">
-        <v>7.5</v>
+        <v>15.9</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -580,10 +580,10 @@
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>174</v>
+        <v>205</v>
       </c>
       <c r="AA3" t="n">
-        <v>155</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4">
@@ -599,38 +599,38 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>拉亞杭南</t>
+          <t>拉亞農安</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>35105</v>
+        <v>25854</v>
       </c>
       <c r="E4" t="n">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="F4" t="n">
-        <v>11945</v>
+        <v>12846</v>
       </c>
       <c r="G4" t="n">
-        <v>34</v>
+        <v>49.7</v>
       </c>
       <c r="H4" t="n">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="I4" t="n">
-        <v>8020</v>
+        <v>5415</v>
       </c>
       <c r="J4" t="n">
-        <v>22.8</v>
+        <v>20.9</v>
       </c>
       <c r="K4" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>9530</v>
+        <v>33</v>
       </c>
       <c r="M4" t="n">
-        <v>27.1</v>
+        <v>0.1</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -642,22 +642,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R4" t="n">
-        <v>2075</v>
+        <v>870</v>
       </c>
       <c r="S4" t="n">
-        <v>5.9</v>
+        <v>3.4</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="U4" t="n">
-        <v>3535</v>
+        <v>6690</v>
       </c>
       <c r="V4" t="n">
-        <v>10.1</v>
+        <v>25.9</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="AA4" t="n">
-        <v>206</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5">
@@ -688,38 +688,38 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>拉亞杭南</t>
+          <t>拉亞農安</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>35645</v>
+        <v>31098</v>
       </c>
       <c r="E5" t="n">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="F5" t="n">
-        <v>16225</v>
+        <v>15358</v>
       </c>
       <c r="G5" t="n">
-        <v>45.5</v>
+        <v>49.4</v>
       </c>
       <c r="H5" t="n">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="I5" t="n">
-        <v>9540</v>
+        <v>6920</v>
       </c>
       <c r="J5" t="n">
-        <v>26.8</v>
+        <v>22.3</v>
       </c>
       <c r="K5" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>3455</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>9.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -734,19 +734,19 @@
         <v>1</v>
       </c>
       <c r="R5" t="n">
-        <v>260</v>
+        <v>120</v>
       </c>
       <c r="S5" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="U5" t="n">
-        <v>6165</v>
+        <v>8700</v>
       </c>
       <c r="V5" t="n">
-        <v>17.3</v>
+        <v>28</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -758,10 +758,10 @@
         <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>188</v>
+        <v>221</v>
       </c>
       <c r="AA5" t="n">
-        <v>190</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6">
@@ -777,65 +777,65 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>拉亞杭南</t>
+          <t>拉亞農安</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>26765</v>
+        <v>20045</v>
       </c>
       <c r="E6" t="n">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="F6" t="n">
-        <v>9120</v>
+        <v>11375</v>
       </c>
       <c r="G6" t="n">
-        <v>34.1</v>
+        <v>56.7</v>
       </c>
       <c r="H6" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I6" t="n">
-        <v>4560</v>
+        <v>4205</v>
       </c>
       <c r="J6" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K6" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L6" t="n">
-        <v>5730</v>
+        <v>160</v>
       </c>
       <c r="M6" t="n">
-        <v>21.4</v>
+        <v>0.8</v>
       </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>2</v>
       </c>
-      <c r="O6" t="n">
-        <v>3550</v>
-      </c>
-      <c r="P6" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1</v>
-      </c>
       <c r="R6" t="n">
-        <v>1230</v>
+        <v>285</v>
       </c>
       <c r="S6" t="n">
-        <v>4.6</v>
+        <v>1.4</v>
       </c>
       <c r="T6" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="U6" t="n">
-        <v>2575</v>
+        <v>4020</v>
       </c>
       <c r="V6" t="n">
-        <v>9.6</v>
+        <v>20.1</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -847,10 +847,10 @@
         <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>132</v>
+        <v>196</v>
       </c>
       <c r="AA6" t="n">
-        <v>203</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7">
@@ -866,65 +866,65 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>拉亞杭南</t>
+          <t>拉亞農安</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>26710</v>
+        <v>20888</v>
       </c>
       <c r="E7" t="n">
-        <v>69</v>
+        <v>126</v>
       </c>
       <c r="F7" t="n">
-        <v>8855</v>
+        <v>11143</v>
       </c>
       <c r="G7" t="n">
-        <v>33.2</v>
+        <v>53.3</v>
       </c>
       <c r="H7" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I7" t="n">
-        <v>6240</v>
+        <v>5560</v>
       </c>
       <c r="J7" t="n">
-        <v>23.4</v>
+        <v>26.6</v>
       </c>
       <c r="K7" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>6655</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>24.9</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>465</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
       </c>
       <c r="R7" t="n">
-        <v>2040</v>
+        <v>170</v>
       </c>
       <c r="S7" t="n">
-        <v>7.6</v>
+        <v>0.8</v>
       </c>
       <c r="T7" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="U7" t="n">
-        <v>2455</v>
+        <v>4015</v>
       </c>
       <c r="V7" t="n">
-        <v>9.199999999999999</v>
+        <v>19.2</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -936,10 +936,10 @@
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>152</v>
+        <v>213</v>
       </c>
       <c r="AA7" t="n">
-        <v>176</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8">
@@ -955,38 +955,38 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>拉亞杭南</t>
+          <t>拉亞農安</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>25500</v>
+        <v>18153</v>
       </c>
       <c r="E8" t="n">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="F8" t="n">
-        <v>9875</v>
+        <v>10138</v>
       </c>
       <c r="G8" t="n">
-        <v>38.7</v>
+        <v>55.8</v>
       </c>
       <c r="H8" t="n">
         <v>57</v>
       </c>
       <c r="I8" t="n">
-        <v>5110</v>
+        <v>4645</v>
       </c>
       <c r="J8" t="n">
-        <v>20</v>
+        <v>25.6</v>
       </c>
       <c r="K8" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>6525</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>25.6</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -998,22 +998,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R8" t="n">
-        <v>1270</v>
+        <v>440</v>
       </c>
       <c r="S8" t="n">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="T8" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="U8" t="n">
-        <v>2720</v>
+        <v>2930</v>
       </c>
       <c r="V8" t="n">
-        <v>10.7</v>
+        <v>16.1</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1025,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="AA8" t="n">
-        <v>160</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9">
@@ -1044,65 +1044,65 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>拉亞杭南</t>
+          <t>拉亞農安</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>27470</v>
+        <v>21979</v>
       </c>
       <c r="E9" t="n">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="F9" t="n">
-        <v>10220</v>
+        <v>10529</v>
       </c>
       <c r="G9" t="n">
-        <v>37.2</v>
+        <v>47.9</v>
       </c>
       <c r="H9" t="n">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="I9" t="n">
-        <v>6150</v>
+        <v>4880</v>
       </c>
       <c r="J9" t="n">
-        <v>22.4</v>
+        <v>22.2</v>
       </c>
       <c r="K9" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>4270</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R9" t="n">
-        <v>2495</v>
+        <v>365</v>
       </c>
       <c r="S9" t="n">
-        <v>9.1</v>
+        <v>1.7</v>
       </c>
       <c r="T9" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="U9" t="n">
-        <v>3975</v>
+        <v>6205</v>
       </c>
       <c r="V9" t="n">
-        <v>14.5</v>
+        <v>28.2</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="AA9" t="n">
-        <v>155</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10">
@@ -1133,38 +1133,38 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>拉亞杭南</t>
+          <t>拉亞農安</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>26270</v>
+        <v>19094</v>
       </c>
       <c r="E10" t="n">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="F10" t="n">
-        <v>10750</v>
+        <v>9019</v>
       </c>
       <c r="G10" t="n">
-        <v>40.9</v>
+        <v>47.2</v>
       </c>
       <c r="H10" t="n">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="I10" t="n">
-        <v>6720</v>
+        <v>5790</v>
       </c>
       <c r="J10" t="n">
-        <v>25.6</v>
+        <v>30.3</v>
       </c>
       <c r="K10" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>5490</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>20.9</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R10" t="n">
-        <v>655</v>
+        <v>230</v>
       </c>
       <c r="S10" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="T10" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="U10" t="n">
-        <v>2655</v>
+        <v>4055</v>
       </c>
       <c r="V10" t="n">
-        <v>10.1</v>
+        <v>21.2</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="AA10" t="n">
-        <v>148</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11">
@@ -1222,65 +1222,65 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>拉亞杭南</t>
+          <t>拉亞農安</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>37090</v>
+        <v>24632</v>
       </c>
       <c r="E11" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F11" t="n">
-        <v>14304</v>
+        <v>11279</v>
       </c>
       <c r="G11" t="n">
-        <v>38.6</v>
+        <v>45.8</v>
       </c>
       <c r="H11" t="n">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="I11" t="n">
-        <v>10020</v>
+        <v>5330</v>
       </c>
       <c r="J11" t="n">
-        <v>27</v>
+        <v>21.6</v>
       </c>
       <c r="K11" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>1581</v>
+        <v>33</v>
       </c>
       <c r="M11" t="n">
-        <v>4.3</v>
+        <v>0.1</v>
       </c>
       <c r="N11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>3280</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R11" t="n">
-        <v>3395</v>
+        <v>685</v>
       </c>
       <c r="S11" t="n">
-        <v>9.199999999999999</v>
+        <v>2.8</v>
       </c>
       <c r="T11" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="U11" t="n">
-        <v>4510</v>
+        <v>7305</v>
       </c>
       <c r="V11" t="n">
-        <v>12.2</v>
+        <v>29.7</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1292,10 +1292,10 @@
         <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="AA11" t="n">
-        <v>191</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12">
@@ -1311,65 +1311,65 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>拉亞杭南</t>
+          <t>拉亞農安</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>37905</v>
+        <v>33353</v>
       </c>
       <c r="E12" t="n">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="F12" t="n">
-        <v>16035</v>
+        <v>15253</v>
       </c>
       <c r="G12" t="n">
-        <v>42.3</v>
+        <v>45.7</v>
       </c>
       <c r="H12" t="n">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="I12" t="n">
-        <v>8175</v>
+        <v>5630</v>
       </c>
       <c r="J12" t="n">
-        <v>21.6</v>
+        <v>16.9</v>
       </c>
       <c r="K12" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>6620</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1675</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="R12" t="n">
-        <v>185</v>
+        <v>1940</v>
       </c>
       <c r="S12" t="n">
-        <v>0.5</v>
+        <v>5.8</v>
       </c>
       <c r="T12" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="U12" t="n">
-        <v>5215</v>
+        <v>10530</v>
       </c>
       <c r="V12" t="n">
-        <v>13.8</v>
+        <v>31.6</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1381,10 +1381,10 @@
         <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>175</v>
+        <v>237</v>
       </c>
       <c r="AA12" t="n">
-        <v>217</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13">
@@ -1400,65 +1400,65 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>拉亞杭南</t>
+          <t>拉亞農安</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>24435</v>
+        <v>22290</v>
       </c>
       <c r="E13" t="n">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="F13" t="n">
-        <v>10570</v>
+        <v>11625</v>
       </c>
       <c r="G13" t="n">
-        <v>43.3</v>
+        <v>52.2</v>
       </c>
       <c r="H13" t="n">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="I13" t="n">
-        <v>6122</v>
+        <v>3925</v>
       </c>
       <c r="J13" t="n">
-        <v>25.1</v>
+        <v>17.6</v>
       </c>
       <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
         <v>4</v>
       </c>
-      <c r="L13" t="n">
-        <v>3298</v>
-      </c>
-      <c r="M13" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
       <c r="R13" t="n">
-        <v>1290</v>
+        <v>795</v>
       </c>
       <c r="S13" t="n">
-        <v>5.3</v>
+        <v>3.6</v>
       </c>
       <c r="T13" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="U13" t="n">
-        <v>3155</v>
+        <v>5945</v>
       </c>
       <c r="V13" t="n">
-        <v>12.9</v>
+        <v>26.7</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1470,10 +1470,10 @@
         <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>146</v>
+        <v>218</v>
       </c>
       <c r="AA13" t="n">
-        <v>167</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14">
@@ -1489,65 +1489,65 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>拉亞杭南</t>
+          <t>拉亞農安</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>30009</v>
+        <v>20348</v>
       </c>
       <c r="E14" t="n">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="F14" t="n">
-        <v>11720</v>
+        <v>9993</v>
       </c>
       <c r="G14" t="n">
-        <v>39.1</v>
+        <v>49.1</v>
       </c>
       <c r="H14" t="n">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="I14" t="n">
-        <v>6945</v>
+        <v>5190</v>
       </c>
       <c r="J14" t="n">
-        <v>23.1</v>
+        <v>25.5</v>
       </c>
       <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
         <v>2</v>
       </c>
-      <c r="L14" t="n">
-        <v>6544</v>
-      </c>
-      <c r="M14" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>325</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="T14" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="U14" t="n">
-        <v>4800</v>
+        <v>4840</v>
       </c>
       <c r="V14" t="n">
-        <v>16</v>
+        <v>23.8</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1559,10 +1559,10 @@
         <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="AA14" t="n">
-        <v>184</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15">
@@ -1578,47 +1578,47 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>拉亞杭南</t>
+          <t>拉亞農安</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>26900</v>
+        <v>19288</v>
       </c>
       <c r="E15" t="n">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="F15" t="n">
-        <v>8055</v>
+        <v>10438</v>
       </c>
       <c r="G15" t="n">
-        <v>29.9</v>
+        <v>54.1</v>
       </c>
       <c r="H15" t="n">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="I15" t="n">
-        <v>6725</v>
+        <v>5030</v>
       </c>
       <c r="J15" t="n">
-        <v>25</v>
+        <v>26.1</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>7695</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>28.6</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>3335</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>12.4</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -1630,13 +1630,13 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="U15" t="n">
-        <v>1090</v>
+        <v>3820</v>
       </c>
       <c r="V15" t="n">
-        <v>4.1</v>
+        <v>19.8</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1648,57 +1648,57 @@
         <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>143</v>
+        <v>202</v>
       </c>
       <c r="AA15" t="n">
-        <v>188</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2019-11-16</t>
+          <t>2019-11-14</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>六</t>
+          <t>四</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>拉亞杭南</t>
+          <t>拉亞農安</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>35475</v>
+        <v>19054</v>
       </c>
       <c r="E16" t="n">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="F16" t="n">
-        <v>12215</v>
+        <v>10009</v>
       </c>
       <c r="G16" t="n">
-        <v>34.4</v>
+        <v>52.5</v>
       </c>
       <c r="H16" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I16" t="n">
-        <v>6605</v>
+        <v>4845</v>
       </c>
       <c r="J16" t="n">
-        <v>18.6</v>
+        <v>25.4</v>
       </c>
       <c r="K16" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>11690</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1710,22 +1710,22 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>485</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="U16" t="n">
-        <v>4480</v>
+        <v>4200</v>
       </c>
       <c r="V16" t="n">
-        <v>12.6</v>
+        <v>22</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1737,57 +1737,57 @@
         <v>0</v>
       </c>
       <c r="Z16" t="n">
-        <v>155</v>
+        <v>196</v>
       </c>
       <c r="AA16" t="n">
-        <v>229</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2019-11-17</t>
+          <t>2019-11-15</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>日</t>
+          <t>五</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>拉亞杭南</t>
+          <t>拉亞農安</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>38885</v>
+        <v>18985</v>
       </c>
       <c r="E17" t="n">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="F17" t="n">
-        <v>15415</v>
+        <v>11295</v>
       </c>
       <c r="G17" t="n">
-        <v>39.6</v>
+        <v>59.5</v>
       </c>
       <c r="H17" t="n">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="I17" t="n">
-        <v>8770</v>
+        <v>3055</v>
       </c>
       <c r="J17" t="n">
-        <v>22.6</v>
+        <v>16.1</v>
       </c>
       <c r="K17" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>4570</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>11.8</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1799,22 +1799,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R17" t="n">
-        <v>3110</v>
+        <v>380</v>
       </c>
       <c r="S17" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="T17" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="U17" t="n">
-        <v>7020</v>
+        <v>4255</v>
       </c>
       <c r="V17" t="n">
-        <v>18.1</v>
+        <v>22.4</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1826,57 +1826,57 @@
         <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="AA17" t="n">
-        <v>231</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2019-11-18</t>
+          <t>2019-11-16</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>一</t>
+          <t>六</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>拉亞杭南</t>
+          <t>拉亞農安</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>22365</v>
+        <v>26411</v>
       </c>
       <c r="E18" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F18" t="n">
-        <v>10200</v>
+        <v>12765</v>
       </c>
       <c r="G18" t="n">
-        <v>45.6</v>
+        <v>48.3</v>
       </c>
       <c r="H18" t="n">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="I18" t="n">
-        <v>6335</v>
+        <v>7110</v>
       </c>
       <c r="J18" t="n">
-        <v>28.3</v>
+        <v>26.9</v>
       </c>
       <c r="K18" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="L18" t="n">
-        <v>1820</v>
+        <v>66</v>
       </c>
       <c r="M18" t="n">
-        <v>8.1</v>
+        <v>0.2</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -1888,22 +1888,22 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R18" t="n">
-        <v>665</v>
+        <v>1150</v>
       </c>
       <c r="S18" t="n">
-        <v>3</v>
+        <v>4.4</v>
       </c>
       <c r="T18" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="U18" t="n">
-        <v>3345</v>
+        <v>5320</v>
       </c>
       <c r="V18" t="n">
-        <v>15</v>
+        <v>20.1</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -1915,57 +1915,57 @@
         <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>156</v>
+        <v>193</v>
       </c>
       <c r="AA18" t="n">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2019-11-19</t>
+          <t>2019-11-17</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>二</t>
+          <t>日</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>拉亞杭南</t>
+          <t>拉亞農安</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>20305</v>
+        <v>28710</v>
       </c>
       <c r="E19" t="n">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="F19" t="n">
-        <v>8965</v>
+        <v>12935</v>
       </c>
       <c r="G19" t="n">
-        <v>44.2</v>
+        <v>45.1</v>
       </c>
       <c r="H19" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I19" t="n">
-        <v>4350</v>
+        <v>7215</v>
       </c>
       <c r="J19" t="n">
-        <v>21.4</v>
+        <v>25.1</v>
       </c>
       <c r="K19" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>3740</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>18.4</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -1977,22 +1977,22 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="R19" t="n">
-        <v>905</v>
+        <v>2150</v>
       </c>
       <c r="S19" t="n">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="T19" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="U19" t="n">
-        <v>2345</v>
+        <v>6410</v>
       </c>
       <c r="V19" t="n">
-        <v>11.5</v>
+        <v>22.3</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2004,57 +2004,57 @@
         <v>0</v>
       </c>
       <c r="Z19" t="n">
-        <v>141</v>
+        <v>196</v>
       </c>
       <c r="AA19" t="n">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2019-11-20</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>三</t>
+          <t>一</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>拉亞杭南</t>
+          <t>拉亞農安</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>27395</v>
+        <v>20963</v>
       </c>
       <c r="E20" t="n">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="F20" t="n">
-        <v>10325</v>
+        <v>10688</v>
       </c>
       <c r="G20" t="n">
-        <v>37.7</v>
+        <v>51</v>
       </c>
       <c r="H20" t="n">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="I20" t="n">
-        <v>6785</v>
+        <v>4435</v>
       </c>
       <c r="J20" t="n">
-        <v>24.8</v>
+        <v>21.2</v>
       </c>
       <c r="K20" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>6150</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>22.4</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -2066,22 +2066,22 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>770</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="U20" t="n">
-        <v>3365</v>
+        <v>5840</v>
       </c>
       <c r="V20" t="n">
-        <v>12.3</v>
+        <v>27.9</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2093,57 +2093,57 @@
         <v>0</v>
       </c>
       <c r="Z20" t="n">
-        <v>152</v>
+        <v>204</v>
       </c>
       <c r="AA20" t="n">
-        <v>180</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>2019-11-19</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>四</t>
+          <t>二</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>拉亞杭南</t>
+          <t>拉亞農安</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>26410</v>
+        <v>19311</v>
       </c>
       <c r="E21" t="n">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="F21" t="n">
-        <v>10565</v>
+        <v>11551</v>
       </c>
       <c r="G21" t="n">
-        <v>40</v>
+        <v>59.8</v>
       </c>
       <c r="H21" t="n">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="I21" t="n">
-        <v>7113</v>
+        <v>4140</v>
       </c>
       <c r="J21" t="n">
-        <v>26.9</v>
+        <v>21.4</v>
       </c>
       <c r="K21" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>4842</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>18.3</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -2155,22 +2155,22 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>1150</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="U21" t="n">
-        <v>2740</v>
+        <v>3620</v>
       </c>
       <c r="V21" t="n">
-        <v>10.4</v>
+        <v>18.7</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2182,57 +2182,57 @@
         <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="AA21" t="n">
-        <v>146</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2019-11-22</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>五</t>
+          <t>三</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>拉亞杭南</t>
+          <t>拉亞農安</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>27540</v>
+        <v>18713</v>
       </c>
       <c r="E22" t="n">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="F22" t="n">
-        <v>9415</v>
+        <v>9253</v>
       </c>
       <c r="G22" t="n">
-        <v>34.2</v>
+        <v>49.4</v>
       </c>
       <c r="H22" t="n">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="I22" t="n">
-        <v>6558</v>
+        <v>4990</v>
       </c>
       <c r="J22" t="n">
-        <v>23.8</v>
+        <v>26.7</v>
       </c>
       <c r="K22" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>5552</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>20.2</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -2247,19 +2247,19 @@
         <v>1</v>
       </c>
       <c r="R22" t="n">
-        <v>1895</v>
+        <v>130</v>
       </c>
       <c r="S22" t="n">
-        <v>6.9</v>
+        <v>0.7</v>
       </c>
       <c r="T22" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="U22" t="n">
-        <v>4120</v>
+        <v>4340</v>
       </c>
       <c r="V22" t="n">
-        <v>15</v>
+        <v>23.2</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2271,57 +2271,57 @@
         <v>0</v>
       </c>
       <c r="Z22" t="n">
-        <v>151</v>
+        <v>200</v>
       </c>
       <c r="AA22" t="n">
-        <v>182</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2019-11-23</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>六</t>
+          <t>四</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>拉亞杭南</t>
+          <t>拉亞農安</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>43115</v>
+        <v>20128</v>
       </c>
       <c r="E23" t="n">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="F23" t="n">
-        <v>19610</v>
+        <v>8557</v>
       </c>
       <c r="G23" t="n">
-        <v>45.5</v>
+        <v>42.5</v>
       </c>
       <c r="H23" t="n">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="I23" t="n">
-        <v>7750</v>
+        <v>6651</v>
       </c>
       <c r="J23" t="n">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="K23" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>8930</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>20.7</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -2333,22 +2333,22 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>2635</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>6.1</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="U23" t="n">
-        <v>4190</v>
+        <v>4920</v>
       </c>
       <c r="V23" t="n">
-        <v>9.699999999999999</v>
+        <v>24.4</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2360,57 +2360,57 @@
         <v>0</v>
       </c>
       <c r="Z23" t="n">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="AA23" t="n">
-        <v>216</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2019-11-24</t>
+          <t>2019-11-22</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>日</t>
+          <t>五</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>拉亞杭南</t>
+          <t>拉亞農安</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>42490</v>
+        <v>21935</v>
       </c>
       <c r="E24" t="n">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F24" t="n">
-        <v>13120</v>
+        <v>8713</v>
       </c>
       <c r="G24" t="n">
-        <v>30.9</v>
+        <v>39.7</v>
       </c>
       <c r="H24" t="n">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="I24" t="n">
-        <v>8500</v>
+        <v>6040</v>
       </c>
       <c r="J24" t="n">
-        <v>20</v>
+        <v>27.5</v>
       </c>
       <c r="K24" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="L24" t="n">
-        <v>7635</v>
+        <v>72</v>
       </c>
       <c r="M24" t="n">
-        <v>18</v>
+        <v>0.3</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -2422,22 +2422,22 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R24" t="n">
-        <v>5380</v>
+        <v>1135</v>
       </c>
       <c r="S24" t="n">
-        <v>12.7</v>
+        <v>5.2</v>
       </c>
       <c r="T24" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="U24" t="n">
-        <v>7855</v>
+        <v>5975</v>
       </c>
       <c r="V24" t="n">
-        <v>18.5</v>
+        <v>27.2</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2449,57 +2449,57 @@
         <v>0</v>
       </c>
       <c r="Z24" t="n">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="AA24" t="n">
-        <v>256</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2019-11-25</t>
+          <t>2019-11-23</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>一</t>
+          <t>六</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>拉亞杭南</t>
+          <t>拉亞農安</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>23470</v>
+        <v>26083</v>
       </c>
       <c r="E25" t="n">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F25" t="n">
-        <v>11080</v>
+        <v>10678</v>
       </c>
       <c r="G25" t="n">
-        <v>47.2</v>
+        <v>40.9</v>
       </c>
       <c r="H25" t="n">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="I25" t="n">
-        <v>7610</v>
+        <v>6035</v>
       </c>
       <c r="J25" t="n">
-        <v>32.4</v>
+        <v>23.1</v>
       </c>
       <c r="K25" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>1285</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -2511,22 +2511,22 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>930</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="U25" t="n">
-        <v>2565</v>
+        <v>9370</v>
       </c>
       <c r="V25" t="n">
-        <v>10.9</v>
+        <v>35.9</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2538,57 +2538,57 @@
         <v>0</v>
       </c>
       <c r="Z25" t="n">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="AA25" t="n">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2019-11-26</t>
+          <t>2019-11-24</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>二</t>
+          <t>日</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>拉亞杭南</t>
+          <t>拉亞農安</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>22434</v>
+        <v>27067</v>
       </c>
       <c r="E26" t="n">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F26" t="n">
-        <v>10095</v>
+        <v>14256</v>
       </c>
       <c r="G26" t="n">
-        <v>45</v>
+        <v>52.7</v>
       </c>
       <c r="H26" t="n">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="I26" t="n">
-        <v>4295</v>
+        <v>6431</v>
       </c>
       <c r="J26" t="n">
-        <v>19.1</v>
+        <v>23.8</v>
       </c>
       <c r="K26" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>5474</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>24.4</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -2600,22 +2600,22 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R26" t="n">
-        <v>1040</v>
+        <v>585</v>
       </c>
       <c r="S26" t="n">
-        <v>4.6</v>
+        <v>2.2</v>
       </c>
       <c r="T26" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="U26" t="n">
-        <v>1530</v>
+        <v>5795</v>
       </c>
       <c r="V26" t="n">
-        <v>6.8</v>
+        <v>21.4</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2627,57 +2627,57 @@
         <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="AA26" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2019-11-27</t>
+          <t>2019-11-25</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>三</t>
+          <t>一</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>拉亞杭南</t>
+          <t>拉亞農安</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>23440</v>
+        <v>16770</v>
       </c>
       <c r="E27" t="n">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="F27" t="n">
-        <v>9900</v>
+        <v>8125</v>
       </c>
       <c r="G27" t="n">
-        <v>42.2</v>
+        <v>48.4</v>
       </c>
       <c r="H27" t="n">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="I27" t="n">
-        <v>5573</v>
+        <v>4855</v>
       </c>
       <c r="J27" t="n">
-        <v>23.8</v>
+        <v>29</v>
       </c>
       <c r="K27" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>3712</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>15.8</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -2689,22 +2689,22 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>295</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="U27" t="n">
-        <v>3960</v>
+        <v>3790</v>
       </c>
       <c r="V27" t="n">
-        <v>16.9</v>
+        <v>22.6</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2716,57 +2716,57 @@
         <v>0</v>
       </c>
       <c r="Z27" t="n">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="AA27" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2019-11-28</t>
+          <t>2019-11-26</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>四</t>
+          <t>二</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>拉亞杭南</t>
+          <t>拉亞農安</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>22770</v>
+        <v>22634</v>
       </c>
       <c r="E28" t="n">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="F28" t="n">
-        <v>8980</v>
+        <v>9490</v>
       </c>
       <c r="G28" t="n">
-        <v>39.4</v>
+        <v>41.9</v>
       </c>
       <c r="H28" t="n">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="I28" t="n">
-        <v>5610</v>
+        <v>7195</v>
       </c>
       <c r="J28" t="n">
-        <v>24.6</v>
+        <v>31.8</v>
       </c>
       <c r="K28" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="L28" t="n">
-        <v>4270</v>
+        <v>364</v>
       </c>
       <c r="M28" t="n">
-        <v>18.8</v>
+        <v>1.6</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R28" t="n">
-        <v>470</v>
+        <v>340</v>
       </c>
       <c r="S28" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="T28" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="U28" t="n">
-        <v>3440</v>
+        <v>5245</v>
       </c>
       <c r="V28" t="n">
-        <v>15.1</v>
+        <v>23.2</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2805,84 +2805,84 @@
         <v>0</v>
       </c>
       <c r="Z28" t="n">
-        <v>164</v>
+        <v>195</v>
       </c>
       <c r="AA28" t="n">
-        <v>139</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2019-11-29</t>
+          <t>2019-11-27</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>五</t>
+          <t>三</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>拉亞杭南</t>
+          <t>拉亞農安</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>21875</v>
+        <v>22981</v>
       </c>
       <c r="E29" t="n">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="F29" t="n">
-        <v>10360</v>
+        <v>8306</v>
       </c>
       <c r="G29" t="n">
-        <v>47.4</v>
+        <v>36.1</v>
       </c>
       <c r="H29" t="n">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="I29" t="n">
-        <v>4700</v>
+        <v>6690</v>
       </c>
       <c r="J29" t="n">
-        <v>21.5</v>
+        <v>29.1</v>
       </c>
       <c r="K29" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>3613</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>772</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="U29" t="n">
-        <v>1680</v>
+        <v>7985</v>
       </c>
       <c r="V29" t="n">
-        <v>7.7</v>
+        <v>34.7</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2894,180 +2894,358 @@
         <v>0</v>
       </c>
       <c r="Z29" t="n">
-        <v>144</v>
+        <v>205</v>
       </c>
       <c r="AA29" t="n">
-        <v>152</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2019-11-30</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>六</t>
+          <t>四</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>拉亞杭南</t>
+          <t>拉亞農安</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>35995</v>
+        <v>19546</v>
       </c>
       <c r="E30" t="n">
+        <v>114</v>
+      </c>
+      <c r="F30" t="n">
+        <v>10056</v>
+      </c>
+      <c r="G30" t="n">
+        <v>51.4</v>
+      </c>
+      <c r="H30" t="n">
+        <v>68</v>
+      </c>
+      <c r="I30" t="n">
+        <v>6070</v>
+      </c>
+      <c r="J30" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>585</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3</v>
+      </c>
+      <c r="T30" t="n">
+        <v>16</v>
+      </c>
+      <c r="U30" t="n">
+        <v>2835</v>
+      </c>
+      <c r="V30" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>202</v>
+      </c>
+      <c r="AA30" t="n">
         <v>97</v>
-      </c>
-      <c r="F30" t="n">
-        <v>15925</v>
-      </c>
-      <c r="G30" t="n">
-        <v>44.2</v>
-      </c>
-      <c r="H30" t="n">
-        <v>61</v>
-      </c>
-      <c r="I30" t="n">
-        <v>6435</v>
-      </c>
-      <c r="J30" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="K30" t="n">
-        <v>12</v>
-      </c>
-      <c r="L30" t="n">
-        <v>7840</v>
-      </c>
-      <c r="M30" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1</v>
-      </c>
-      <c r="R30" t="n">
-        <v>2135</v>
-      </c>
-      <c r="S30" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="T30" t="n">
-        <v>1</v>
-      </c>
-      <c r="U30" t="n">
-        <v>3660</v>
-      </c>
-      <c r="V30" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="W30" t="n">
-        <v>0</v>
-      </c>
-      <c r="X30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>172</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>209</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr"/>
-      <c r="B31" t="inlineStr"/>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2019-11-29</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>五</t>
+        </is>
+      </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>拉亞農安</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>21465</v>
+      </c>
+      <c r="E31" t="n">
+        <v>106</v>
+      </c>
+      <c r="F31" t="n">
+        <v>9880</v>
+      </c>
+      <c r="G31" t="n">
+        <v>46</v>
+      </c>
+      <c r="H31" t="n">
+        <v>78</v>
+      </c>
+      <c r="I31" t="n">
+        <v>6600</v>
+      </c>
+      <c r="J31" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1080</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="n">
+        <v>22</v>
+      </c>
+      <c r="U31" t="n">
+        <v>3905</v>
+      </c>
+      <c r="V31" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>211</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2019-11-30</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>六</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>拉亞農安</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>20438</v>
+      </c>
+      <c r="E32" t="n">
+        <v>61</v>
+      </c>
+      <c r="F32" t="n">
+        <v>8843</v>
+      </c>
+      <c r="G32" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="H32" t="n">
+        <v>69</v>
+      </c>
+      <c r="I32" t="n">
+        <v>6420</v>
+      </c>
+      <c r="J32" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>28</v>
+      </c>
+      <c r="U32" t="n">
+        <v>5175</v>
+      </c>
+      <c r="V32" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>158</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr">
+        <is>
           <t>小計</t>
         </is>
       </c>
-      <c r="D31" t="n">
-        <v>820813</v>
-      </c>
-      <c r="E31" t="n">
-        <v>2283</v>
-      </c>
-      <c r="F31" t="n">
-        <v>325869</v>
-      </c>
-      <c r="G31" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1876</v>
-      </c>
-      <c r="I31" t="n">
-        <v>187681</v>
-      </c>
-      <c r="J31" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="K31" t="n">
-        <v>363</v>
-      </c>
-      <c r="L31" t="n">
-        <v>154231</v>
-      </c>
-      <c r="M31" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="N31" t="n">
-        <v>11</v>
-      </c>
-      <c r="O31" t="n">
-        <v>13437</v>
-      </c>
-      <c r="P31" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>26</v>
-      </c>
-      <c r="R31" t="n">
-        <v>38420</v>
-      </c>
-      <c r="S31" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="T31" t="n">
-        <v>28</v>
-      </c>
-      <c r="U31" t="n">
-        <v>101175</v>
-      </c>
-      <c r="V31" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>4587</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>179</v>
+      <c r="D33" t="n">
+        <v>668011</v>
+      </c>
+      <c r="E33" t="n">
+        <v>3134</v>
+      </c>
+      <c r="F33" t="n">
+        <v>324293</v>
+      </c>
+      <c r="G33" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1865</v>
+      </c>
+      <c r="I33" t="n">
+        <v>167340</v>
+      </c>
+      <c r="J33" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="K33" t="n">
+        <v>13</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1208</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>72</v>
+      </c>
+      <c r="R33" t="n">
+        <v>13995</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T33" t="n">
+        <v>915</v>
+      </c>
+      <c r="U33" t="n">
+        <v>161175</v>
+      </c>
+      <c r="V33" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>5999</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/MEDIA/3005_拉亞直營營業額(2019-11-01~2019-11-30).xlsx
+++ b/MEDIA/3005_拉亞直營營業額(2019-11-01~2019-11-30).xlsx
@@ -603,7 +603,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>25854</v>
+        <v>25649</v>
       </c>
       <c r="E4" t="n">
         <v>99</v>
@@ -612,16 +612,16 @@
         <v>12846</v>
       </c>
       <c r="G4" t="n">
-        <v>49.7</v>
+        <v>50.1</v>
       </c>
       <c r="H4" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I4" t="n">
-        <v>5415</v>
+        <v>5330</v>
       </c>
       <c r="J4" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
@@ -651,13 +651,13 @@
         <v>3.4</v>
       </c>
       <c r="T4" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U4" t="n">
-        <v>6690</v>
+        <v>6570</v>
       </c>
       <c r="V4" t="n">
-        <v>25.9</v>
+        <v>25.6</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AA4" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5">
@@ -781,25 +781,25 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>20045</v>
+        <v>19685</v>
       </c>
       <c r="E6" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F6" t="n">
-        <v>11375</v>
+        <v>11105</v>
       </c>
       <c r="G6" t="n">
-        <v>56.7</v>
+        <v>56.4</v>
       </c>
       <c r="H6" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I6" t="n">
-        <v>4205</v>
+        <v>4115</v>
       </c>
       <c r="J6" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="K6" t="n">
         <v>2</v>
@@ -835,7 +835,7 @@
         <v>4020</v>
       </c>
       <c r="V6" t="n">
-        <v>20.1</v>
+        <v>20.4</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -847,10 +847,10 @@
         <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="AA6" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7">
@@ -870,16 +870,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>20888</v>
+        <v>20238</v>
       </c>
       <c r="E7" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F7" t="n">
-        <v>11143</v>
+        <v>10668</v>
       </c>
       <c r="G7" t="n">
-        <v>53.3</v>
+        <v>52.7</v>
       </c>
       <c r="H7" t="n">
         <v>60</v>
@@ -888,7 +888,7 @@
         <v>5560</v>
       </c>
       <c r="J7" t="n">
-        <v>26.6</v>
+        <v>27.5</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0.8</v>
       </c>
       <c r="T7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="U7" t="n">
-        <v>4015</v>
+        <v>3840</v>
       </c>
       <c r="V7" t="n">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -936,10 +936,10 @@
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AA7" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8">
@@ -959,25 +959,25 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>18153</v>
+        <v>18023</v>
       </c>
       <c r="E8" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F8" t="n">
-        <v>10138</v>
+        <v>10028</v>
       </c>
       <c r="G8" t="n">
-        <v>55.8</v>
+        <v>55.6</v>
       </c>
       <c r="H8" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I8" t="n">
-        <v>4645</v>
+        <v>4625</v>
       </c>
       <c r="J8" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1013,7 +1013,7 @@
         <v>2930</v>
       </c>
       <c r="V8" t="n">
-        <v>16.1</v>
+        <v>16.3</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AA8" t="n">
         <v>93</v>
@@ -1048,25 +1048,25 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>21979</v>
+        <v>21749</v>
       </c>
       <c r="E9" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F9" t="n">
-        <v>10529</v>
+        <v>10389</v>
       </c>
       <c r="G9" t="n">
-        <v>47.9</v>
+        <v>47.8</v>
       </c>
       <c r="H9" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I9" t="n">
-        <v>4880</v>
+        <v>4790</v>
       </c>
       <c r="J9" t="n">
-        <v>22.2</v>
+        <v>22</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>6205</v>
       </c>
       <c r="V9" t="n">
-        <v>28.2</v>
+        <v>28.5</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AA9" t="n">
         <v>106</v>
@@ -1137,7 +1137,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>19094</v>
+        <v>18734</v>
       </c>
       <c r="E10" t="n">
         <v>112</v>
@@ -1146,16 +1146,16 @@
         <v>9019</v>
       </c>
       <c r="G10" t="n">
-        <v>47.2</v>
+        <v>48.1</v>
       </c>
       <c r="H10" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I10" t="n">
-        <v>5790</v>
+        <v>5700</v>
       </c>
       <c r="J10" t="n">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1185,13 +1185,13 @@
         <v>1.2</v>
       </c>
       <c r="T10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="U10" t="n">
-        <v>4055</v>
+        <v>3785</v>
       </c>
       <c r="V10" t="n">
-        <v>21.2</v>
+        <v>20.2</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AA10" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11">
@@ -1226,25 +1226,25 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>24632</v>
+        <v>24452</v>
       </c>
       <c r="E11" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F11" t="n">
-        <v>11279</v>
+        <v>11189</v>
       </c>
       <c r="G11" t="n">
         <v>45.8</v>
       </c>
       <c r="H11" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I11" t="n">
-        <v>5330</v>
+        <v>5240</v>
       </c>
       <c r="J11" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
@@ -1280,7 +1280,7 @@
         <v>7305</v>
       </c>
       <c r="V11" t="n">
-        <v>29.7</v>
+        <v>29.9</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AA11" t="n">
         <v>132</v>
@@ -1315,25 +1315,25 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>33353</v>
+        <v>32993</v>
       </c>
       <c r="E12" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F12" t="n">
-        <v>15253</v>
+        <v>14983</v>
       </c>
       <c r="G12" t="n">
-        <v>45.7</v>
+        <v>45.4</v>
       </c>
       <c r="H12" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I12" t="n">
-        <v>5630</v>
+        <v>5540</v>
       </c>
       <c r="J12" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1360,7 +1360,7 @@
         <v>1940</v>
       </c>
       <c r="S12" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="T12" t="n">
         <v>58</v>
@@ -1369,7 +1369,7 @@
         <v>10530</v>
       </c>
       <c r="V12" t="n">
-        <v>31.6</v>
+        <v>31.9</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1381,10 +1381,10 @@
         <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AA12" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
@@ -1404,25 +1404,25 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>22290</v>
+        <v>22065</v>
       </c>
       <c r="E13" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F13" t="n">
-        <v>11625</v>
+        <v>11490</v>
       </c>
       <c r="G13" t="n">
-        <v>52.2</v>
+        <v>52.1</v>
       </c>
       <c r="H13" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="n">
-        <v>3925</v>
+        <v>3835</v>
       </c>
       <c r="J13" t="n">
-        <v>17.6</v>
+        <v>17.4</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1458,7 +1458,7 @@
         <v>5945</v>
       </c>
       <c r="V13" t="n">
-        <v>26.7</v>
+        <v>26.9</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AA13" t="n">
         <v>102</v>
@@ -1493,7 +1493,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>20348</v>
+        <v>20163</v>
       </c>
       <c r="E14" t="n">
         <v>99</v>
@@ -1502,13 +1502,13 @@
         <v>9993</v>
       </c>
       <c r="G14" t="n">
-        <v>49.1</v>
+        <v>49.6</v>
       </c>
       <c r="H14" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I14" t="n">
-        <v>5190</v>
+        <v>5135</v>
       </c>
       <c r="J14" t="n">
         <v>25.5</v>
@@ -1541,13 +1541,13 @@
         <v>1.6</v>
       </c>
       <c r="T14" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U14" t="n">
-        <v>4840</v>
+        <v>4710</v>
       </c>
       <c r="V14" t="n">
-        <v>23.8</v>
+        <v>23.4</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1559,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AA14" t="n">
         <v>104</v>
@@ -1582,16 +1582,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>19288</v>
+        <v>18898</v>
       </c>
       <c r="E15" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F15" t="n">
-        <v>10438</v>
+        <v>10048</v>
       </c>
       <c r="G15" t="n">
-        <v>54.1</v>
+        <v>53.2</v>
       </c>
       <c r="H15" t="n">
         <v>58</v>
@@ -1600,7 +1600,7 @@
         <v>5030</v>
       </c>
       <c r="J15" t="n">
-        <v>26.1</v>
+        <v>26.6</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1636,7 +1636,7 @@
         <v>3820</v>
       </c>
       <c r="V15" t="n">
-        <v>19.8</v>
+        <v>20.2</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AA15" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16">
@@ -1938,16 +1938,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>28710</v>
+        <v>28405</v>
       </c>
       <c r="E19" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F19" t="n">
-        <v>12935</v>
+        <v>12630</v>
       </c>
       <c r="G19" t="n">
-        <v>45.1</v>
+        <v>44.5</v>
       </c>
       <c r="H19" t="n">
         <v>56</v>
@@ -1956,7 +1956,7 @@
         <v>7215</v>
       </c>
       <c r="J19" t="n">
-        <v>25.1</v>
+        <v>25.4</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -1983,7 +1983,7 @@
         <v>2150</v>
       </c>
       <c r="S19" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="T19" t="n">
         <v>37</v>
@@ -1992,7 +1992,7 @@
         <v>6410</v>
       </c>
       <c r="V19" t="n">
-        <v>22.3</v>
+        <v>22.6</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="Z19" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AA19" t="n">
         <v>146</v>
@@ -2027,7 +2027,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>20963</v>
+        <v>20703</v>
       </c>
       <c r="E20" t="n">
         <v>117</v>
@@ -2036,16 +2036,16 @@
         <v>10688</v>
       </c>
       <c r="G20" t="n">
+        <v>51.6</v>
+      </c>
+      <c r="H20" t="n">
         <v>51</v>
       </c>
-      <c r="H20" t="n">
-        <v>52</v>
-      </c>
       <c r="I20" t="n">
-        <v>4435</v>
+        <v>4350</v>
       </c>
       <c r="J20" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2075,13 +2075,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U20" t="n">
-        <v>5840</v>
+        <v>5665</v>
       </c>
       <c r="V20" t="n">
-        <v>27.9</v>
+        <v>27.4</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2093,10 +2093,10 @@
         <v>0</v>
       </c>
       <c r="Z20" t="n">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AA20" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21">
@@ -2116,16 +2116,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>19311</v>
+        <v>19121</v>
       </c>
       <c r="E21" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F21" t="n">
-        <v>11551</v>
+        <v>11361</v>
       </c>
       <c r="G21" t="n">
-        <v>59.8</v>
+        <v>59.4</v>
       </c>
       <c r="H21" t="n">
         <v>60</v>
@@ -2134,7 +2134,7 @@
         <v>4140</v>
       </c>
       <c r="J21" t="n">
-        <v>21.4</v>
+        <v>21.7</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2170,7 +2170,7 @@
         <v>3620</v>
       </c>
       <c r="V21" t="n">
-        <v>18.7</v>
+        <v>18.9</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AA21" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22">
@@ -2205,25 +2205,25 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>18713</v>
+        <v>18268</v>
       </c>
       <c r="E22" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F22" t="n">
-        <v>9253</v>
+        <v>8858</v>
       </c>
       <c r="G22" t="n">
-        <v>49.4</v>
+        <v>48.5</v>
       </c>
       <c r="H22" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I22" t="n">
-        <v>4990</v>
+        <v>4940</v>
       </c>
       <c r="J22" t="n">
-        <v>26.7</v>
+        <v>27</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>4340</v>
       </c>
       <c r="V22" t="n">
-        <v>23.2</v>
+        <v>23.8</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2271,10 +2271,10 @@
         <v>0</v>
       </c>
       <c r="Z22" t="n">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AA22" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23">
@@ -2294,7 +2294,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>20128</v>
+        <v>19968</v>
       </c>
       <c r="E23" t="n">
         <v>88</v>
@@ -2303,7 +2303,7 @@
         <v>8557</v>
       </c>
       <c r="G23" t="n">
-        <v>42.5</v>
+        <v>42.9</v>
       </c>
       <c r="H23" t="n">
         <v>87</v>
@@ -2312,7 +2312,7 @@
         <v>6651</v>
       </c>
       <c r="J23" t="n">
-        <v>33</v>
+        <v>33.3</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2342,13 +2342,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U23" t="n">
-        <v>4920</v>
+        <v>4760</v>
       </c>
       <c r="V23" t="n">
-        <v>24.4</v>
+        <v>23.8</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2360,10 +2360,10 @@
         <v>0</v>
       </c>
       <c r="Z23" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AA23" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24">
@@ -2383,7 +2383,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>21935</v>
+        <v>21645</v>
       </c>
       <c r="E24" t="n">
         <v>74</v>
@@ -2392,16 +2392,16 @@
         <v>8713</v>
       </c>
       <c r="G24" t="n">
-        <v>39.7</v>
+        <v>40.3</v>
       </c>
       <c r="H24" t="n">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I24" t="n">
-        <v>6040</v>
+        <v>5750</v>
       </c>
       <c r="J24" t="n">
-        <v>27.5</v>
+        <v>26.6</v>
       </c>
       <c r="K24" t="n">
         <v>1</v>
@@ -2437,7 +2437,7 @@
         <v>5975</v>
       </c>
       <c r="V24" t="n">
-        <v>27.2</v>
+        <v>27.6</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2449,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="Z24" t="n">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AA24" t="n">
         <v>114</v>
@@ -2472,25 +2472,25 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>26083</v>
+        <v>25498</v>
       </c>
       <c r="E25" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F25" t="n">
-        <v>10678</v>
+        <v>10358</v>
       </c>
       <c r="G25" t="n">
-        <v>40.9</v>
+        <v>40.6</v>
       </c>
       <c r="H25" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I25" t="n">
-        <v>6035</v>
+        <v>5770</v>
       </c>
       <c r="J25" t="n">
-        <v>23.1</v>
+        <v>22.6</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>9370</v>
       </c>
       <c r="V25" t="n">
-        <v>35.9</v>
+        <v>36.7</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2538,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="Z25" t="n">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="AA25" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26">
@@ -2739,16 +2739,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>22634</v>
+        <v>22084</v>
       </c>
       <c r="E28" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F28" t="n">
-        <v>9490</v>
+        <v>9125</v>
       </c>
       <c r="G28" t="n">
-        <v>41.9</v>
+        <v>41.3</v>
       </c>
       <c r="H28" t="n">
         <v>64</v>
@@ -2757,7 +2757,7 @@
         <v>7195</v>
       </c>
       <c r="J28" t="n">
-        <v>31.8</v>
+        <v>32.6</v>
       </c>
       <c r="K28" t="n">
         <v>4</v>
@@ -2787,13 +2787,13 @@
         <v>1.5</v>
       </c>
       <c r="T28" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U28" t="n">
-        <v>5245</v>
+        <v>5060</v>
       </c>
       <c r="V28" t="n">
-        <v>23.2</v>
+        <v>22.9</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2805,7 +2805,7 @@
         <v>0</v>
       </c>
       <c r="Z28" t="n">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AA28" t="n">
         <v>116</v>
@@ -2828,7 +2828,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>22981</v>
+        <v>22676</v>
       </c>
       <c r="E29" t="n">
         <v>96</v>
@@ -2837,16 +2837,16 @@
         <v>8306</v>
       </c>
       <c r="G29" t="n">
-        <v>36.1</v>
+        <v>36.6</v>
       </c>
       <c r="H29" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I29" t="n">
-        <v>6690</v>
+        <v>6385</v>
       </c>
       <c r="J29" t="n">
-        <v>29.1</v>
+        <v>28.2</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2882,7 +2882,7 @@
         <v>7985</v>
       </c>
       <c r="V29" t="n">
-        <v>34.7</v>
+        <v>35.2</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="Z29" t="n">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AA29" t="n">
         <v>112</v>
@@ -2917,25 +2917,25 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>19546</v>
+        <v>18951</v>
       </c>
       <c r="E30" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F30" t="n">
-        <v>10056</v>
+        <v>9686</v>
       </c>
       <c r="G30" t="n">
-        <v>51.4</v>
+        <v>51.1</v>
       </c>
       <c r="H30" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I30" t="n">
-        <v>6070</v>
+        <v>5990</v>
       </c>
       <c r="J30" t="n">
-        <v>31.1</v>
+        <v>31.6</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2962,16 +2962,16 @@
         <v>585</v>
       </c>
       <c r="S30" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="T30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U30" t="n">
-        <v>2835</v>
+        <v>2690</v>
       </c>
       <c r="V30" t="n">
-        <v>14.5</v>
+        <v>14.2</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -2983,10 +2983,10 @@
         <v>0</v>
       </c>
       <c r="Z30" t="n">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="AA30" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31">
@@ -3006,16 +3006,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>21465</v>
+        <v>21275</v>
       </c>
       <c r="E31" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F31" t="n">
-        <v>9880</v>
+        <v>9690</v>
       </c>
       <c r="G31" t="n">
-        <v>46</v>
+        <v>45.5</v>
       </c>
       <c r="H31" t="n">
         <v>78</v>
@@ -3024,7 +3024,7 @@
         <v>6600</v>
       </c>
       <c r="J31" t="n">
-        <v>30.7</v>
+        <v>31</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3051,7 +3051,7 @@
         <v>1080</v>
       </c>
       <c r="S31" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="T31" t="n">
         <v>22</v>
@@ -3060,7 +3060,7 @@
         <v>3905</v>
       </c>
       <c r="V31" t="n">
-        <v>18.2</v>
+        <v>18.4</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3072,10 +3072,10 @@
         <v>0</v>
       </c>
       <c r="Z31" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AA31" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32">
@@ -3095,16 +3095,16 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>20438</v>
+        <v>20128</v>
       </c>
       <c r="E32" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F32" t="n">
-        <v>8843</v>
+        <v>8533</v>
       </c>
       <c r="G32" t="n">
-        <v>43.3</v>
+        <v>42.4</v>
       </c>
       <c r="H32" t="n">
         <v>69</v>
@@ -3113,7 +3113,7 @@
         <v>6420</v>
       </c>
       <c r="J32" t="n">
-        <v>31.4</v>
+        <v>31.9</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3149,7 +3149,7 @@
         <v>5175</v>
       </c>
       <c r="V32" t="n">
-        <v>25.3</v>
+        <v>25.7</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3161,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="Z32" t="n">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AA32" t="n">
         <v>129</v>
@@ -3176,22 +3176,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>668011</v>
+        <v>660551</v>
       </c>
       <c r="E33" t="n">
-        <v>3134</v>
+        <v>3109</v>
       </c>
       <c r="F33" t="n">
-        <v>324293</v>
+        <v>319968</v>
       </c>
       <c r="G33" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="H33" t="n">
-        <v>1865</v>
+        <v>1845</v>
       </c>
       <c r="I33" t="n">
-        <v>167340</v>
+        <v>165565</v>
       </c>
       <c r="J33" t="n">
         <v>25.1</v>
@@ -3224,13 +3224,13 @@
         <v>2.1</v>
       </c>
       <c r="T33" t="n">
-        <v>915</v>
+        <v>907</v>
       </c>
       <c r="U33" t="n">
-        <v>161175</v>
+        <v>159815</v>
       </c>
       <c r="V33" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3242,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="Z33" t="n">
-        <v>5999</v>
+        <v>5946</v>
       </c>
       <c r="AA33" t="n">
         <v>111</v>
